--- a/database/sidis/expdata/3708.xlsx
+++ b/database/sidis/expdata/3708.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Desktop/Research Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuamiller/Desktop/GIT/jam3d/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD0F36B-CE93-5240-846A-FB7AA731994F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA5E297-9A47-FC44-8B07-A89EB3891A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="7260" windowWidth="27640" windowHeight="16020" xr2:uid="{F06CE260-B950-2D48-BA52-2A6E5A879A91}"/>
+    <workbookView xWindow="420" yWindow="4900" windowWidth="27640" windowHeight="16020" xr2:uid="{F06CE260-B950-2D48-BA52-2A6E5A879A91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
   <si>
     <t>AUTcollins</t>
   </si>
@@ -82,13 +91,16 @@
   </si>
   <si>
     <t>pTmax</t>
+  </si>
+  <si>
+    <t>depol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -444,15 +456,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463059F3-8CDD-7F45-8F37-EAC0083E409D}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="P2" sqref="P2:P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -498,8 +510,11 @@
       <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2.48</v>
       </c>
@@ -546,8 +561,11 @@
         <f>N3</f>
         <v>0.17</v>
       </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2.4700000000000002</v>
       </c>
@@ -594,8 +612,11 @@
         <f t="shared" ref="O3:O7" si="0">N4</f>
         <v>0.25</v>
       </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2.4300000000000002</v>
       </c>
@@ -642,8 +663,11 @@
         <f t="shared" si="0"/>
         <v>0.31</v>
       </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2.36</v>
       </c>
@@ -690,8 +714,11 @@
         <f t="shared" si="0"/>
         <v>0.38</v>
       </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2.2999999999999998</v>
       </c>
@@ -738,8 +765,11 @@
         <f t="shared" si="0"/>
         <v>0.52</v>
       </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2.2799999999999998</v>
       </c>
@@ -786,8 +816,11 @@
         <f t="shared" si="0"/>
         <v>0.69</v>
       </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2.2599999999999998</v>
       </c>
@@ -832,6 +865,9 @@
       </c>
       <c r="O8">
         <v>2</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
